--- a/data/trans_orig/P34E2H-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E9EA94-B37A-4E0A-A7A3-B8A488314AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7738FC77-7A5C-432D-B123-17AA0B6C6252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B421E580-EA18-423A-949E-5F8DAFDCE2DA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{558FF3D5-2B3F-45E4-842D-4E07FEE79D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="417">
   <si>
     <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2015 (Tasa respuesta: 24,97%)</t>
   </si>
@@ -80,1201 +80,1210 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,6%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,79%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>9,32%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>54,43%</t>
   </si>
   <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
     <t>63,08%</t>
   </si>
   <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1689,7 +1698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCDA521-42EF-4293-83A1-5F38A97EA1F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9A2671-3E07-4D71-B4BF-2AFCA6F82543}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2122,10 +2131,10 @@
         <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2134,13 +2143,13 @@
         <v>1026</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2149,13 +2158,13 @@
         <v>5246</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2179,13 @@
         <v>53031</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -2185,13 +2194,13 @@
         <v>16574</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -2200,13 +2209,13 @@
         <v>69605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2230,13 @@
         <v>143080</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -2236,13 +2245,13 @@
         <v>65274</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>203</v>
@@ -2251,13 +2260,13 @@
         <v>208353</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2281,13 @@
         <v>15843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2287,13 +2296,13 @@
         <v>18682</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -2302,13 +2311,13 @@
         <v>34525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2332,13 @@
         <v>223523</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -2338,13 +2347,13 @@
         <v>104354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>318</v>
@@ -2353,18 +2362,18 @@
         <v>327876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B15" s="5">
         <v>9</v>
@@ -2382,7 +2391,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2397,7 +2406,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2412,7 +2421,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2436,13 @@
         <v>1352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2448,7 +2457,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2463,7 +2472,7 @@
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,7 +2493,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2499,7 +2508,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2514,7 +2523,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,7 +2544,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2544,13 +2553,13 @@
         <v>868</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2559,13 +2568,13 @@
         <v>3241</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2589,13 @@
         <v>2835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2601,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2610,13 +2619,13 @@
         <v>2835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2640,13 @@
         <v>3544</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2646,13 +2655,13 @@
         <v>3676</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2661,13 +2670,13 @@
         <v>7220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2691,13 @@
         <v>10765</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2697,13 +2706,13 @@
         <v>2699</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -2712,13 +2721,13 @@
         <v>13464</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2742,13 @@
         <v>66619</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2748,13 +2757,13 @@
         <v>14361</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -2763,13 +2772,13 @@
         <v>80980</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2793,13 @@
         <v>141873</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>96</v>
@@ -2799,13 +2808,13 @@
         <v>96586</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M23" s="7">
         <v>234</v>
@@ -2814,13 +2823,13 @@
         <v>238459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2844,13 @@
         <v>41954</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -2850,13 +2859,13 @@
         <v>35826</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M24" s="7">
         <v>74</v>
@@ -2865,13 +2874,13 @@
         <v>77780</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2895,13 @@
         <v>271315</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H25" s="7">
         <v>156</v>
@@ -2901,13 +2910,13 @@
         <v>154016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M25" s="7">
         <v>413</v>
@@ -2916,18 +2925,18 @@
         <v>425331</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
@@ -2945,7 +2954,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2960,7 +2969,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2975,7 +2984,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2999,13 @@
         <v>1942</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3011,7 +3020,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -3020,13 +3029,13 @@
         <v>1942</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,7 +3056,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3062,7 +3071,7 @@
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -3071,13 +3080,13 @@
         <v>1728</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3101,13 @@
         <v>6046</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3107,13 +3116,13 @@
         <v>1770</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3122,13 +3131,13 @@
         <v>7816</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3152,13 @@
         <v>4526</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3164,7 +3173,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -3173,13 +3182,13 @@
         <v>4526</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3203,13 @@
         <v>10469</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -3209,13 +3218,13 @@
         <v>2911</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -3224,13 +3233,13 @@
         <v>13379</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3254,13 @@
         <v>13376</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -3260,13 +3269,13 @@
         <v>6967</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -3275,13 +3284,13 @@
         <v>20343</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3305,7 @@
         <v>40823</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>176</v>
@@ -3449,13 +3458,13 @@
         <v>229501</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H36" s="7">
         <v>173</v>
@@ -3464,13 +3473,13 @@
         <v>175225</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M36" s="7">
         <v>390</v>
@@ -3479,13 +3488,13 @@
         <v>404726</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,10 +3580,10 @@
         <v>208</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -3583,13 +3592,13 @@
         <v>6348</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3670,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3685,13 +3694,13 @@
         <v>1020</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3715,13 @@
         <v>922</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3721,13 +3730,13 @@
         <v>960</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3736,13 +3745,13 @@
         <v>1882</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3766,13 @@
         <v>8164</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3772,13 +3781,13 @@
         <v>3052</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M42" s="7">
         <v>11</v>
@@ -3787,13 +3796,13 @@
         <v>11216</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3817,13 @@
         <v>8562</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
@@ -3823,13 +3832,13 @@
         <v>4248</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M43" s="7">
         <v>12</v>
@@ -3838,13 +3847,13 @@
         <v>12809</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3868,13 @@
         <v>30696</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H44" s="7">
         <v>17</v>
@@ -3874,13 +3883,13 @@
         <v>19016</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M44" s="7">
         <v>45</v>
@@ -3889,13 +3898,13 @@
         <v>49712</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3919,13 @@
         <v>94306</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H45" s="7">
         <v>74</v>
@@ -3925,13 +3934,13 @@
         <v>76902</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M45" s="7">
         <v>158</v>
@@ -3940,13 +3949,13 @@
         <v>171208</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3970,13 @@
         <v>29203</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H46" s="7">
         <v>18</v>
@@ -3976,13 +3985,13 @@
         <v>18975</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M46" s="7">
         <v>43</v>
@@ -4012,13 +4021,13 @@
         <v>175292</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H47" s="7">
         <v>121</v>
@@ -4027,13 +4036,13 @@
         <v>127081</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M47" s="7">
         <v>278</v>
@@ -4042,13 +4051,13 @@
         <v>302373</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,7 +4080,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -4086,7 +4095,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -4101,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4125,13 @@
         <v>1166</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4137,7 +4146,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4146,7 +4155,7 @@
         <v>1166</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
@@ -4173,7 +4182,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4188,7 +4197,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4203,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4233,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4239,7 +4248,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -4248,13 +4257,13 @@
         <v>989</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4278,13 @@
         <v>2177</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4290,7 +4299,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -4305,7 +4314,7 @@
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4329,13 @@
         <v>1149</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -4335,13 +4344,13 @@
         <v>1070</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -4350,13 +4359,13 @@
         <v>2219</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4380,13 @@
         <v>3069</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -4386,13 +4395,13 @@
         <v>1051</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M54" s="7">
         <v>4</v>
@@ -4401,13 +4410,13 @@
         <v>4119</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4431,13 @@
         <v>21705</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H55" s="7">
         <v>6</v>
@@ -4437,13 +4446,13 @@
         <v>7750</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M55" s="7">
         <v>26</v>
@@ -4452,13 +4461,13 @@
         <v>29455</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4482,13 @@
         <v>35528</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H56" s="7">
         <v>32</v>
@@ -4488,13 +4497,13 @@
         <v>38117</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="L56" s="7" t="s">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c r="M56" s="7">
         <v>63</v>
@@ -4503,13 +4512,13 @@
         <v>73646</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4533,13 @@
         <v>19030</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H57" s="7">
         <v>14</v>
@@ -4539,13 +4548,13 @@
         <v>17249</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M57" s="7">
         <v>30</v>
@@ -4554,13 +4563,13 @@
         <v>36279</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4584,13 @@
         <v>84812</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H58" s="7">
         <v>54</v>
@@ -4590,13 +4599,13 @@
         <v>65237</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M58" s="7">
         <v>129</v>
@@ -4605,18 +4614,18 @@
         <v>150050</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B59" s="5">
         <v>9</v>
@@ -4634,7 +4643,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>312</v>
+        <v>46</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4649,7 +4658,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -4664,7 +4673,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,7 +4694,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>312</v>
+        <v>46</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4700,7 +4709,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4715,7 +4724,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4739,13 @@
         <v>1838</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4751,7 +4760,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -4760,13 +4769,13 @@
         <v>1838</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4790,13 @@
         <v>946</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4802,7 +4811,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -4811,13 +4820,13 @@
         <v>946</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,7 +4847,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>312</v>
+        <v>46</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4853,7 +4862,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -4868,7 +4877,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4892,13 @@
         <v>2496</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4904,7 +4913,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M64" s="7">
         <v>3</v>
@@ -4913,13 +4922,13 @@
         <v>2496</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4943,13 @@
         <v>2466</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H65" s="7">
         <v>2</v>
@@ -4949,13 +4958,13 @@
         <v>2101</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M65" s="7">
         <v>5</v>
@@ -4964,13 +4973,13 @@
         <v>4566</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4994,13 @@
         <v>5501</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H66" s="7">
         <v>3</v>
@@ -5000,13 +5009,13 @@
         <v>3222</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="M66" s="7">
         <v>9</v>
@@ -5015,13 +5024,13 @@
         <v>8724</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5045,13 @@
         <v>25707</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H67" s="7">
         <v>36</v>
@@ -5051,13 +5060,13 @@
         <v>40812</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M67" s="7">
         <v>61</v>
@@ -5066,13 +5075,13 @@
         <v>66519</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5096,13 @@
         <v>17535</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H68" s="7">
         <v>13</v>
@@ -5102,13 +5111,13 @@
         <v>16451</v>
       </c>
       <c r="J68" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L68" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M68" s="7">
         <v>31</v>
@@ -5117,13 +5126,13 @@
         <v>33986</v>
       </c>
       <c r="O68" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q68" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5147,13 @@
         <v>56490</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H69" s="7">
         <v>54</v>
@@ -5153,13 +5162,13 @@
         <v>62586</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M69" s="7">
         <v>112</v>
@@ -5168,13 +5177,13 @@
         <v>119076</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,7 +5206,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -5206,13 +5215,13 @@
         <v>903</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -5221,13 +5230,13 @@
         <v>903</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5251,13 @@
         <v>10112</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H71" s="7">
         <v>4</v>
@@ -5260,10 +5269,10 @@
         <v>24</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="M71" s="7">
         <v>13</v>
@@ -5272,13 +5281,13 @@
         <v>14042</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>361</v>
+        <v>141</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>321</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5302,13 @@
         <v>3103</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
@@ -5308,13 +5317,13 @@
         <v>1728</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>147</v>
+        <v>363</v>
       </c>
       <c r="M72" s="7">
         <v>5</v>
@@ -5326,10 +5335,10 @@
         <v>15</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>366</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5353,13 @@
         <v>13294</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H73" s="7">
         <v>3</v>
@@ -5359,13 +5368,13 @@
         <v>2638</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>371</v>
+        <v>140</v>
       </c>
       <c r="M73" s="7">
         <v>16</v>
@@ -5374,13 +5383,13 @@
         <v>15932</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>373</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5404,13 @@
         <v>11393</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>375</v>
+        <v>223</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -5410,13 +5419,13 @@
         <v>960</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M74" s="7">
         <v>12</v>
@@ -5425,13 +5434,13 @@
         <v>12352</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>26</v>
+        <v>374</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5455,13 @@
         <v>25822</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H75" s="7">
         <v>13</v>
@@ -5461,13 +5470,13 @@
         <v>12604</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M75" s="7">
         <v>38</v>
@@ -5476,13 +5485,13 @@
         <v>38426</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>168</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5506,13 @@
         <v>42458</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F76" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H76" s="7">
         <v>18</v>
@@ -5512,13 +5521,13 @@
         <v>18090</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>162</v>
+        <v>384</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M76" s="7">
         <v>59</v>
@@ -5527,13 +5536,13 @@
         <v>60548</v>
       </c>
       <c r="O76" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q76" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P76" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q76" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5587,13 @@
         <v>289647</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,13 +5608,13 @@
         <v>566613</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>247</v>
+        <v>399</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="H78" s="7">
         <v>420</v>
@@ -5614,13 +5623,13 @@
         <v>434288</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M78" s="7">
         <v>951</v>
@@ -5629,13 +5638,13 @@
         <v>1000901</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5659,13 @@
         <v>149765</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H79" s="7">
         <v>134</v>
@@ -5665,13 +5674,13 @@
         <v>142086</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M79" s="7">
         <v>270</v>
@@ -5680,13 +5689,13 @@
         <v>291851</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5710,13 @@
         <v>1040933</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H80" s="7">
         <v>665</v>
@@ -5716,13 +5725,13 @@
         <v>688499</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M80" s="7">
         <v>1640</v>
@@ -5731,18 +5740,18 @@
         <v>1729432</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E2H-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7738FC77-7A5C-432D-B123-17AA0B6C6252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EEF64CE-C05F-49C9-A8C5-BE8A4C6D28F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{558FF3D5-2B3F-45E4-842D-4E07FEE79D3D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{866BAD7B-2EBB-42C2-8C19-5FF64E468F1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="417">
-  <si>
-    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2015 (Tasa respuesta: 24,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="410">
+  <si>
+    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 24,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -80,1180 +80,1162 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>4,35%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,4%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>54,43%</t>
   </si>
   <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
   </si>
   <si>
     <t>63,08%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>55,22%</t>
+    <t>55,45%</t>
   </si>
   <si>
     <t>60,27%</t>
@@ -1262,28 +1244,25 @@
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1698,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9A2671-3E07-4D71-B4BF-2AFCA6F82543}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCB61D4-049C-4E06-808F-8EE0C103D3A4}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2574,7 +2553,7 @@
         <v>86</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2568,13 @@
         <v>2835</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2673,10 +2652,10 @@
         <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2670,13 @@
         <v>10765</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2706,13 +2685,13 @@
         <v>2699</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -2721,13 +2700,13 @@
         <v>13464</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2721,13 @@
         <v>66619</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2757,13 +2736,13 @@
         <v>14361</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -2772,13 +2751,13 @@
         <v>80980</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2772,13 @@
         <v>141873</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>96</v>
@@ -2808,13 +2787,13 @@
         <v>96586</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M23" s="7">
         <v>234</v>
@@ -2823,13 +2802,13 @@
         <v>238459</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2823,13 @@
         <v>41954</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -2859,13 +2838,13 @@
         <v>35826</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M24" s="7">
         <v>74</v>
@@ -2874,13 +2853,13 @@
         <v>77780</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,7 +2915,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
@@ -2954,7 +2933,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2969,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2984,7 +2963,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2978,13 @@
         <v>1942</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3020,7 +2999,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -3029,13 +3008,13 @@
         <v>1942</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,7 +3035,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3071,7 +3050,7 @@
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -3080,13 +3059,13 @@
         <v>1728</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3080,13 @@
         <v>6046</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3116,13 +3095,13 @@
         <v>1770</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3131,13 +3110,13 @@
         <v>7816</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3131,13 @@
         <v>4526</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3173,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -3182,13 +3161,13 @@
         <v>4526</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3182,13 @@
         <v>10469</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -3218,13 +3197,13 @@
         <v>2911</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -3233,13 +3212,13 @@
         <v>13379</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3233,13 @@
         <v>13376</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -3269,13 +3248,13 @@
         <v>6967</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -3284,13 +3263,13 @@
         <v>20343</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3284,13 @@
         <v>40823</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -3320,13 +3299,13 @@
         <v>10349</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M33" s="7">
         <v>50</v>
@@ -3335,13 +3314,13 @@
         <v>51172</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3335,13 @@
         <v>126118</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H34" s="7">
         <v>115</v>
@@ -3371,13 +3350,13 @@
         <v>116598</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M34" s="7">
         <v>232</v>
@@ -3386,13 +3365,13 @@
         <v>242716</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3386,13 @@
         <v>26200</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -3422,13 +3401,13 @@
         <v>34903</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>59</v>
@@ -3437,13 +3416,13 @@
         <v>61103</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,7 +3478,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B37" s="5">
         <v>9</v>
@@ -3517,7 +3496,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3532,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3547,7 +3526,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3541,13 @@
         <v>2419</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -3577,13 +3556,13 @@
         <v>3929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -3592,13 +3571,13 @@
         <v>6348</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,7 +3598,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3634,7 +3613,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3649,7 +3628,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,7 +3649,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3685,7 +3664,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3694,13 +3673,13 @@
         <v>1020</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3694,13 @@
         <v>922</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3736,7 +3715,7 @@
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3745,13 +3724,13 @@
         <v>1882</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3745,13 @@
         <v>8164</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3781,10 +3760,10 @@
         <v>3052</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>221</v>
@@ -3796,13 +3775,13 @@
         <v>11216</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3796,13 @@
         <v>8562</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
@@ -3832,13 +3811,13 @@
         <v>4248</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M43" s="7">
         <v>12</v>
@@ -3847,13 +3826,13 @@
         <v>12809</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3847,13 @@
         <v>30696</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H44" s="7">
         <v>17</v>
@@ -3883,13 +3862,13 @@
         <v>19016</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M44" s="7">
         <v>45</v>
@@ -3898,13 +3877,13 @@
         <v>49712</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3898,13 @@
         <v>94306</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H45" s="7">
         <v>74</v>
@@ -3934,13 +3913,13 @@
         <v>76902</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M45" s="7">
         <v>158</v>
@@ -3949,13 +3928,13 @@
         <v>171208</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3949,13 @@
         <v>29203</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H46" s="7">
         <v>18</v>
@@ -3985,13 +3964,13 @@
         <v>18975</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M46" s="7">
         <v>43</v>
@@ -4000,13 +3979,13 @@
         <v>48178</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,7 +4041,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B48" s="5">
         <v>9</v>
@@ -4080,7 +4059,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -4095,7 +4074,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -4110,7 +4089,7 @@
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4104,13 @@
         <v>1166</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4146,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4155,13 +4134,13 @@
         <v>1166</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,7 +4161,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4197,7 +4176,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4212,7 +4191,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,13 +4206,13 @@
         <v>989</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4248,7 +4227,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -4257,13 +4236,13 @@
         <v>989</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4257,13 @@
         <v>2177</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4299,7 +4278,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -4314,7 +4293,7 @@
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4308,13 @@
         <v>1149</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -4344,13 +4323,13 @@
         <v>1070</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -4359,13 +4338,13 @@
         <v>2219</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4359,13 @@
         <v>3069</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -4395,13 +4374,13 @@
         <v>1051</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M54" s="7">
         <v>4</v>
@@ -4410,13 +4389,13 @@
         <v>4119</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>282</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4410,13 @@
         <v>21705</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H55" s="7">
         <v>6</v>
@@ -4446,13 +4425,13 @@
         <v>7750</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M55" s="7">
         <v>26</v>
@@ -4461,13 +4440,13 @@
         <v>29455</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4461,13 @@
         <v>35528</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H56" s="7">
         <v>32</v>
@@ -4497,13 +4476,13 @@
         <v>38117</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c r="M56" s="7">
         <v>63</v>
@@ -4512,13 +4491,13 @@
         <v>73646</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4512,13 @@
         <v>19030</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H57" s="7">
         <v>14</v>
@@ -4548,13 +4527,13 @@
         <v>17249</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M57" s="7">
         <v>30</v>
@@ -4563,13 +4542,13 @@
         <v>36279</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,7 +4604,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B59" s="5">
         <v>9</v>
@@ -4643,7 +4622,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4658,7 +4637,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -4694,7 +4673,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4709,7 +4688,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4739,13 +4718,13 @@
         <v>1838</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4760,7 +4739,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -4769,13 +4748,13 @@
         <v>1838</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>207</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4769,13 @@
         <v>946</v>
       </c>
       <c r="E62" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4811,7 +4790,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -4820,13 +4799,13 @@
         <v>946</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>316</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,7 +4826,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4862,7 +4841,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -4892,13 +4871,13 @@
         <v>2496</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>211</v>
+        <v>315</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4913,7 +4892,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M64" s="7">
         <v>3</v>
@@ -4922,13 +4901,13 @@
         <v>2496</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P64" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4922,13 @@
         <v>2466</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="H65" s="7">
         <v>2</v>
@@ -4958,13 +4937,13 @@
         <v>2101</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M65" s="7">
         <v>5</v>
@@ -4973,13 +4952,13 @@
         <v>4566</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4973,13 @@
         <v>5501</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H66" s="7">
         <v>3</v>
@@ -5009,13 +4988,13 @@
         <v>3222</v>
       </c>
       <c r="J66" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K66" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="L66" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M66" s="7">
         <v>9</v>
@@ -5024,13 +5003,13 @@
         <v>8724</v>
       </c>
       <c r="O66" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q66" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5024,13 @@
         <v>25707</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H67" s="7">
         <v>36</v>
@@ -5060,13 +5039,13 @@
         <v>40812</v>
       </c>
       <c r="J67" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M67" s="7">
         <v>61</v>
@@ -5075,13 +5054,13 @@
         <v>66519</v>
       </c>
       <c r="O67" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q67" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5075,13 @@
         <v>17535</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H68" s="7">
         <v>13</v>
@@ -5111,13 +5090,13 @@
         <v>16451</v>
       </c>
       <c r="J68" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L68" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M68" s="7">
         <v>31</v>
@@ -5126,13 +5105,13 @@
         <v>33986</v>
       </c>
       <c r="O68" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q68" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5194,13 @@
         <v>903</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>281</v>
+        <v>162</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -5230,13 +5209,13 @@
         <v>903</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>355</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5230,13 @@
         <v>10112</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H71" s="7">
         <v>4</v>
@@ -5269,10 +5248,10 @@
         <v>24</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M71" s="7">
         <v>13</v>
@@ -5281,13 +5260,13 @@
         <v>14042</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>359</v>
+        <v>227</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5281,13 @@
         <v>3103</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
@@ -5317,13 +5296,13 @@
         <v>1728</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>363</v>
+        <v>137</v>
       </c>
       <c r="M72" s="7">
         <v>5</v>
@@ -5335,10 +5314,10 @@
         <v>15</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5332,13 @@
         <v>13294</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H73" s="7">
         <v>3</v>
@@ -5368,13 +5347,13 @@
         <v>2638</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>140</v>
+        <v>363</v>
       </c>
       <c r="M73" s="7">
         <v>16</v>
@@ -5383,13 +5362,13 @@
         <v>15932</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>263</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5383,13 @@
         <v>11393</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>223</v>
+        <v>367</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -5419,13 +5398,13 @@
         <v>960</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M74" s="7">
         <v>12</v>
@@ -5434,13 +5413,13 @@
         <v>12352</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>375</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5434,13 @@
         <v>25822</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H75" s="7">
         <v>13</v>
@@ -5470,13 +5449,13 @@
         <v>12604</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>21</v>
+        <v>375</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>379</v>
+        <v>141</v>
       </c>
       <c r="M75" s="7">
         <v>38</v>
@@ -5485,13 +5464,13 @@
         <v>38426</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>380</v>
+        <v>159</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5485,13 @@
         <v>42458</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H76" s="7">
         <v>18</v>
@@ -5521,13 +5500,13 @@
         <v>18090</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M76" s="7">
         <v>59</v>
@@ -5536,13 +5515,13 @@
         <v>60548</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>386</v>
+        <v>149</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5536,13 @@
         <v>218375</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H77" s="7">
         <v>69</v>
@@ -5572,13 +5551,13 @@
         <v>71272</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M77" s="7">
         <v>275</v>
@@ -5587,13 +5566,13 @@
         <v>289647</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5587,13 @@
         <v>566613</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H78" s="7">
         <v>420</v>
@@ -5623,13 +5602,13 @@
         <v>434288</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M78" s="7">
         <v>951</v>
@@ -5638,13 +5617,13 @@
         <v>1000901</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5638,13 @@
         <v>149765</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H79" s="7">
         <v>134</v>
@@ -5674,13 +5653,13 @@
         <v>142086</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>410</v>
+        <v>257</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M79" s="7">
         <v>270</v>
@@ -5689,13 +5668,13 @@
         <v>291851</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,7 +5730,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E2H-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EEF64CE-C05F-49C9-A8C5-BE8A4C6D28F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D87A35-3E39-42AE-83C1-B27C7CB06645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{866BAD7B-2EBB-42C2-8C19-5FF64E468F1B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{57A3E774-FDE8-41C4-B49F-5A6ADF1988C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="410">
-  <si>
-    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 24,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="330">
+  <si>
+    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 98,93%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,1195 +74,955 @@
     <t>0%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
     <t>4,35%</t>
   </si>
   <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1677,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCB61D4-049C-4E06-808F-8EE0C103D3A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E032E00F-7907-4E78-A60D-A509C9867612}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2035,13 +1795,13 @@
         <v>932</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,7 +1831,7 @@
         <v>1895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>10</v>
@@ -2086,13 +1846,13 @@
         <v>1895</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +1867,13 @@
         <v>4220</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2122,13 +1882,13 @@
         <v>1026</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2137,13 +1897,13 @@
         <v>5246</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,16 +1915,16 @@
         <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>53031</v>
+        <v>53030</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -2173,13 +1933,13 @@
         <v>16574</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -2188,13 +1948,13 @@
         <v>69605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,31 +1966,31 @@
         <v>136</v>
       </c>
       <c r="D12" s="7">
-        <v>143080</v>
+        <v>143079</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>65274</v>
+        <v>65273</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>203</v>
@@ -2239,13 +1999,13 @@
         <v>208353</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,49 +2014,49 @@
         <v>0</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7">
-        <v>15843</v>
+        <v>206554</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="7">
+        <v>308</v>
+      </c>
+      <c r="I13" s="7">
+        <v>301897</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18682</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>499</v>
+      </c>
+      <c r="N13" s="7">
+        <v>508451</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>33</v>
-      </c>
-      <c r="N13" s="7">
-        <v>34525</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,54 +2065,54 @@
         <v>3</v>
       </c>
       <c r="C14" s="7">
-        <v>211</v>
+        <v>388</v>
       </c>
       <c r="D14" s="7">
-        <v>223523</v>
+        <v>414233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
-        <v>107</v>
+        <v>396</v>
       </c>
       <c r="I14" s="7">
-        <v>104354</v>
+        <v>387569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
-        <v>318</v>
+        <v>784</v>
       </c>
       <c r="N14" s="7">
-        <v>327876</v>
+        <v>801802</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5">
         <v>9</v>
@@ -2370,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2385,7 +2145,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2400,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,13 +2175,13 @@
         <v>1352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2436,7 +2196,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2445,13 +2205,13 @@
         <v>1352</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,7 +2232,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2487,7 +2247,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2502,7 +2262,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2277,13 @@
         <v>2373</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2532,13 +2292,13 @@
         <v>868</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2547,13 +2307,13 @@
         <v>3241</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2328,13 @@
         <v>2835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2589,7 +2349,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2598,13 +2358,13 @@
         <v>2835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2379,13 @@
         <v>3544</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2634,13 +2394,13 @@
         <v>3676</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2649,13 +2409,13 @@
         <v>7220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2430,13 @@
         <v>10765</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2685,13 +2445,13 @@
         <v>2699</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -2700,13 +2460,13 @@
         <v>13464</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2481,13 @@
         <v>66619</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2736,13 +2496,13 @@
         <v>14361</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -2751,13 +2511,13 @@
         <v>80980</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2532,13 @@
         <v>141873</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>96</v>
@@ -2787,13 +2547,13 @@
         <v>96586</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>234</v>
@@ -2802,13 +2562,13 @@
         <v>238459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,49 +2577,49 @@
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="D24" s="7">
-        <v>41954</v>
+        <v>346407</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
-        <v>37</v>
+        <v>456</v>
       </c>
       <c r="I24" s="7">
-        <v>35826</v>
+        <v>441662</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
-        <v>74</v>
+        <v>789</v>
       </c>
       <c r="N24" s="7">
-        <v>77780</v>
+        <v>788069</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,54 +2628,54 @@
         <v>3</v>
       </c>
       <c r="C25" s="7">
-        <v>257</v>
+        <v>553</v>
       </c>
       <c r="D25" s="7">
-        <v>271315</v>
+        <v>575768</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H25" s="7">
-        <v>156</v>
+        <v>575</v>
       </c>
       <c r="I25" s="7">
-        <v>154016</v>
+        <v>559852</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M25" s="7">
-        <v>413</v>
+        <v>1128</v>
       </c>
       <c r="N25" s="7">
-        <v>425331</v>
+        <v>1135620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
@@ -2933,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2948,7 +2708,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2963,7 +2723,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2738,13 @@
         <v>1942</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2999,7 +2759,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -3008,13 +2768,13 @@
         <v>1942</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,7 +2795,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3044,13 +2804,13 @@
         <v>1728</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -3059,13 +2819,13 @@
         <v>1728</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +2840,13 @@
         <v>6046</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3095,13 +2855,13 @@
         <v>1770</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3110,13 +2870,13 @@
         <v>7816</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +2891,13 @@
         <v>4526</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3152,7 +2912,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -3161,13 +2921,13 @@
         <v>4526</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +2942,13 @@
         <v>10469</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -3197,13 +2957,13 @@
         <v>2911</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -3212,13 +2972,13 @@
         <v>13379</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +2993,13 @@
         <v>13376</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -3248,13 +3008,13 @@
         <v>6967</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -3263,13 +3023,13 @@
         <v>20343</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3044,13 @@
         <v>40823</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -3299,13 +3059,13 @@
         <v>10349</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="M33" s="7">
         <v>50</v>
@@ -3314,13 +3074,13 @@
         <v>51172</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,28 +3095,28 @@
         <v>126118</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="H34" s="7">
         <v>115</v>
       </c>
       <c r="I34" s="7">
-        <v>116598</v>
+        <v>116597</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="M34" s="7">
         <v>232</v>
@@ -3365,13 +3125,13 @@
         <v>242716</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,49 +3140,49 @@
         <v>0</v>
       </c>
       <c r="C35" s="7">
-        <v>26</v>
+        <v>439</v>
       </c>
       <c r="D35" s="7">
-        <v>26200</v>
+        <v>456663</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="H35" s="7">
-        <v>33</v>
+        <v>517</v>
       </c>
       <c r="I35" s="7">
-        <v>34903</v>
+        <v>512693</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="M35" s="7">
-        <v>59</v>
+        <v>956</v>
       </c>
       <c r="N35" s="7">
-        <v>61103</v>
+        <v>969356</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,54 +3191,54 @@
         <v>3</v>
       </c>
       <c r="C36" s="7">
-        <v>217</v>
+        <v>630</v>
       </c>
       <c r="D36" s="7">
-        <v>229501</v>
+        <v>659964</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H36" s="7">
-        <v>173</v>
+        <v>657</v>
       </c>
       <c r="I36" s="7">
-        <v>175225</v>
+        <v>653015</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M36" s="7">
-        <v>390</v>
+        <v>1287</v>
       </c>
       <c r="N36" s="7">
-        <v>404726</v>
+        <v>1312979</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B37" s="5">
         <v>9</v>
@@ -3496,7 +3256,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3511,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3526,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3301,13 @@
         <v>2419</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -3556,13 +3316,13 @@
         <v>3929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -3571,13 +3331,13 @@
         <v>6348</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,7 +3358,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3613,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3628,7 +3388,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3403,13 @@
         <v>1020</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3664,7 +3424,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3673,13 +3433,13 @@
         <v>1020</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>211</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3454,13 @@
         <v>922</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3709,13 +3469,13 @@
         <v>960</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3724,13 +3484,13 @@
         <v>1882</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3505,13 @@
         <v>8164</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3760,13 +3520,13 @@
         <v>3052</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M42" s="7">
         <v>11</v>
@@ -3775,13 +3535,13 @@
         <v>11216</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3556,13 @@
         <v>8562</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
@@ -3811,13 +3571,13 @@
         <v>4248</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="M43" s="7">
         <v>12</v>
@@ -3826,13 +3586,13 @@
         <v>12809</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3607,13 @@
         <v>30696</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="H44" s="7">
         <v>17</v>
@@ -3862,13 +3622,13 @@
         <v>19016</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="M44" s="7">
         <v>45</v>
@@ -3877,13 +3637,13 @@
         <v>49712</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,31 +3655,31 @@
         <v>84</v>
       </c>
       <c r="D45" s="7">
-        <v>94306</v>
+        <v>94307</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="H45" s="7">
         <v>74</v>
       </c>
       <c r="I45" s="7">
-        <v>76902</v>
+        <v>76901</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="M45" s="7">
         <v>158</v>
@@ -3928,13 +3688,13 @@
         <v>171208</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,49 +3703,49 @@
         <v>0</v>
       </c>
       <c r="C46" s="7">
-        <v>25</v>
+        <v>445</v>
       </c>
       <c r="D46" s="7">
-        <v>29203</v>
+        <v>493798</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="H46" s="7">
-        <v>18</v>
+        <v>494</v>
       </c>
       <c r="I46" s="7">
-        <v>18975</v>
+        <v>535408</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="M46" s="7">
-        <v>43</v>
+        <v>939</v>
       </c>
       <c r="N46" s="7">
-        <v>48178</v>
+        <v>1029206</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,54 +3754,54 @@
         <v>3</v>
       </c>
       <c r="C47" s="7">
-        <v>157</v>
+        <v>577</v>
       </c>
       <c r="D47" s="7">
-        <v>175292</v>
+        <v>639887</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H47" s="7">
-        <v>121</v>
+        <v>597</v>
       </c>
       <c r="I47" s="7">
-        <v>127081</v>
+        <v>643514</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M47" s="7">
-        <v>278</v>
+        <v>1174</v>
       </c>
       <c r="N47" s="7">
-        <v>302373</v>
+        <v>1283401</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="B48" s="5">
         <v>9</v>
@@ -4059,7 +3819,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -4074,7 +3834,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -4089,7 +3849,7 @@
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>261</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +3864,13 @@
         <v>1166</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4125,7 +3885,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4134,13 +3894,13 @@
         <v>1166</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,7 +3921,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4176,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4191,7 +3951,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>261</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +3966,13 @@
         <v>989</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4227,7 +3987,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -4236,13 +3996,13 @@
         <v>989</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>266</v>
+        <v>138</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4017,13 @@
         <v>2177</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>268</v>
+        <v>28</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4278,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -4287,13 +4047,13 @@
         <v>2177</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4068,13 @@
         <v>1149</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -4323,13 +4083,13 @@
         <v>1070</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -4338,13 +4098,13 @@
         <v>2219</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4119,13 @@
         <v>3069</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -4374,13 +4134,13 @@
         <v>1051</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="M54" s="7">
         <v>4</v>
@@ -4389,13 +4149,13 @@
         <v>4119</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4170,13 @@
         <v>21705</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="H55" s="7">
         <v>6</v>
@@ -4425,13 +4185,13 @@
         <v>7750</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="M55" s="7">
         <v>26</v>
@@ -4440,13 +4200,13 @@
         <v>29455</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4221,13 @@
         <v>35528</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="H56" s="7">
         <v>32</v>
@@ -4476,13 +4236,13 @@
         <v>38117</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="M56" s="7">
         <v>63</v>
@@ -4491,13 +4251,13 @@
         <v>73646</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,49 +4266,49 @@
         <v>0</v>
       </c>
       <c r="C57" s="7">
-        <v>16</v>
+        <v>361</v>
       </c>
       <c r="D57" s="7">
-        <v>19030</v>
+        <v>407715</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="H57" s="7">
-        <v>14</v>
+        <v>388</v>
       </c>
       <c r="I57" s="7">
-        <v>17249</v>
+        <v>443259</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="M57" s="7">
-        <v>30</v>
+        <v>749</v>
       </c>
       <c r="N57" s="7">
-        <v>36279</v>
+        <v>850974</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,54 +4317,54 @@
         <v>3</v>
       </c>
       <c r="C58" s="7">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="D58" s="7">
-        <v>84812</v>
+        <v>473497</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H58" s="7">
-        <v>54</v>
+        <v>428</v>
       </c>
       <c r="I58" s="7">
-        <v>65237</v>
+        <v>491247</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M58" s="7">
-        <v>129</v>
+        <v>848</v>
       </c>
       <c r="N58" s="7">
-        <v>150050</v>
+        <v>964744</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="B59" s="5">
         <v>9</v>
@@ -4622,7 +4382,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>307</v>
+        <v>24</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4637,7 +4397,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -4652,7 +4412,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,7 +4433,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>307</v>
+        <v>24</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4688,7 +4448,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4703,7 +4463,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4478,13 @@
         <v>1838</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>308</v>
+        <v>24</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4739,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -4748,13 +4508,13 @@
         <v>1838</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>311</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4529,13 @@
         <v>946</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>312</v>
+        <v>26</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4790,7 +4550,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -4799,13 +4559,13 @@
         <v>946</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4586,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>307</v>
+        <v>24</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4841,7 +4601,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -4856,7 +4616,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4631,13 @@
         <v>2496</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>315</v>
+        <v>148</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4892,7 +4652,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="M64" s="7">
         <v>3</v>
@@ -4901,13 +4661,13 @@
         <v>2496</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4682,13 @@
         <v>2466</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="H65" s="7">
         <v>2</v>
@@ -4937,13 +4697,13 @@
         <v>2101</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="M65" s="7">
         <v>5</v>
@@ -4952,13 +4712,13 @@
         <v>4566</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4733,13 @@
         <v>5501</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="H66" s="7">
         <v>3</v>
@@ -4988,13 +4748,13 @@
         <v>3222</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>328</v>
+        <v>148</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="M66" s="7">
         <v>9</v>
@@ -5003,13 +4763,13 @@
         <v>8724</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>331</v>
+        <v>89</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +4784,13 @@
         <v>25707</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="H67" s="7">
         <v>36</v>
@@ -5039,13 +4799,13 @@
         <v>40812</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="M67" s="7">
         <v>61</v>
@@ -5054,13 +4814,13 @@
         <v>66519</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>341</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,49 +4829,49 @@
         <v>0</v>
       </c>
       <c r="C68" s="7">
-        <v>18</v>
+        <v>587</v>
       </c>
       <c r="D68" s="7">
-        <v>17535</v>
+        <v>552373</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="H68" s="7">
-        <v>13</v>
+        <v>610</v>
       </c>
       <c r="I68" s="7">
-        <v>16451</v>
+        <v>727801</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="M68" s="7">
-        <v>31</v>
+        <v>1197</v>
       </c>
       <c r="N68" s="7">
-        <v>33986</v>
+        <v>1280174</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,49 +4880,49 @@
         <v>3</v>
       </c>
       <c r="C69" s="7">
-        <v>58</v>
+        <v>627</v>
       </c>
       <c r="D69" s="7">
-        <v>56490</v>
+        <v>591328</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H69" s="7">
-        <v>54</v>
+        <v>651</v>
       </c>
       <c r="I69" s="7">
-        <v>62586</v>
+        <v>773936</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M69" s="7">
-        <v>112</v>
+        <v>1278</v>
       </c>
       <c r="N69" s="7">
-        <v>119076</v>
+        <v>1365264</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,7 +4945,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -5194,13 +4954,13 @@
         <v>903</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -5209,13 +4969,13 @@
         <v>903</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +4990,13 @@
         <v>10112</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>353</v>
+        <v>125</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="H71" s="7">
         <v>4</v>
@@ -5245,13 +5005,13 @@
         <v>3929</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="M71" s="7">
         <v>13</v>
@@ -5260,13 +5020,13 @@
         <v>14042</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5041,13 @@
         <v>3103</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
@@ -5296,13 +5056,13 @@
         <v>1728</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="M72" s="7">
         <v>5</v>
@@ -5311,13 +5071,13 @@
         <v>4831</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5092,13 @@
         <v>13294</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>360</v>
+        <v>21</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>361</v>
+        <v>16</v>
       </c>
       <c r="H73" s="7">
         <v>3</v>
@@ -5347,13 +5107,13 @@
         <v>2638</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>351</v>
+        <v>10</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>363</v>
+        <v>233</v>
       </c>
       <c r="M73" s="7">
         <v>16</v>
@@ -5362,13 +5122,13 @@
         <v>15932</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>364</v>
+        <v>13</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5143,13 @@
         <v>11393</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>366</v>
+        <v>137</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -5398,13 +5158,13 @@
         <v>960</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>369</v>
+        <v>34</v>
       </c>
       <c r="M74" s="7">
         <v>12</v>
@@ -5413,13 +5173,13 @@
         <v>12352</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>370</v>
+        <v>266</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>371</v>
+        <v>293</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5194,13 @@
         <v>25822</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="H75" s="7">
         <v>13</v>
@@ -5449,13 +5209,13 @@
         <v>12604</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>375</v>
+        <v>233</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="M75" s="7">
         <v>38</v>
@@ -5464,13 +5224,13 @@
         <v>38426</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5245,13 @@
         <v>42458</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>379</v>
+        <v>86</v>
       </c>
       <c r="H76" s="7">
         <v>18</v>
@@ -5500,13 +5260,13 @@
         <v>18090</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="M76" s="7">
         <v>59</v>
@@ -5515,13 +5275,13 @@
         <v>60548</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>149</v>
+        <v>302</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>382</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5296,13 @@
         <v>218375</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="H77" s="7">
         <v>69</v>
@@ -5551,13 +5311,13 @@
         <v>71272</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>386</v>
+        <v>144</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>387</v>
+        <v>155</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>388</v>
+        <v>307</v>
       </c>
       <c r="M77" s="7">
         <v>275</v>
@@ -5566,13 +5326,13 @@
         <v>289647</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>390</v>
+        <v>309</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>391</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5347,13 @@
         <v>566613</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>392</v>
+        <v>311</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>394</v>
+        <v>313</v>
       </c>
       <c r="H78" s="7">
         <v>420</v>
@@ -5602,13 +5362,13 @@
         <v>434288</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>395</v>
+        <v>314</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="M78" s="7">
         <v>951</v>
@@ -5617,13 +5377,13 @@
         <v>1000901</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>399</v>
+        <v>318</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>400</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,49 +5392,49 @@
         <v>0</v>
       </c>
       <c r="C79" s="7">
-        <v>136</v>
+        <v>2356</v>
       </c>
       <c r="D79" s="7">
-        <v>149765</v>
+        <v>2463510</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="H79" s="7">
-        <v>134</v>
+        <v>2773</v>
       </c>
       <c r="I79" s="7">
-        <v>142086</v>
+        <v>2962721</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>404</v>
+        <v>324</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>405</v>
+        <v>325</v>
       </c>
       <c r="M79" s="7">
-        <v>270</v>
+        <v>5129</v>
       </c>
       <c r="N79" s="7">
-        <v>291851</v>
+        <v>5426231</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>406</v>
+        <v>326</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>407</v>
+        <v>327</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>408</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,54 +5443,54 @@
         <v>3</v>
       </c>
       <c r="C80" s="7">
-        <v>975</v>
+        <v>3195</v>
       </c>
       <c r="D80" s="7">
-        <v>1040933</v>
+        <v>3354678</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H80" s="7">
-        <v>665</v>
+        <v>3304</v>
       </c>
       <c r="I80" s="7">
-        <v>688499</v>
+        <v>3509134</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M80" s="7">
-        <v>1640</v>
+        <v>6499</v>
       </c>
       <c r="N80" s="7">
-        <v>1729432</v>
+        <v>6863812</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>409</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
